--- a/study/ML/스터디 출석표.xlsx
+++ b/study/ML/스터디 출석표.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>회차</t>
   </si>
@@ -103,6 +103,14 @@
   </si>
   <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
@@ -547,15 +555,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -629,6 +628,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -983,7 +991,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -994,183 +1002,193 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="23">
         <v>43667</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="24">
         <v>43674</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="13"/>
+      <c r="C3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="24">
         <v>43681</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="13"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="24">
         <v>43688</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="13"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="24">
         <v>43695</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="13"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="24">
         <v>43702</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="13"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="25">
         <v>43709</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="17"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="22"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="23" t="s">
+      <c r="B11" s="28"/>
+      <c r="C11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="25" t="s">
+      <c r="J12" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="K12" s="22" t="s">
         <v>19</v>
       </c>
     </row>

--- a/study/ML/스터디 출석표.xlsx
+++ b/study/ML/스터디 출석표.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>회차</t>
   </si>
@@ -189,7 +189,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -405,30 +405,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -551,7 +527,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -597,25 +573,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -630,13 +600,13 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -991,7 +961,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1029,7 +999,7 @@
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="21">
         <v>43667</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -1053,7 +1023,7 @@
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="22">
         <v>43674</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -1077,118 +1047,174 @@
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="22">
         <v>43681</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="C4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="22">
         <v>43688</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="C5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="22">
         <v>43695</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="C6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="22">
         <v>43702</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="C7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="23">
         <v>43709</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="C8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="11">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="19"/>
+      <c r="G10" s="11">
+        <v>6</v>
+      </c>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="22" t="s">
+      <c r="J12" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="22" t="s">
+      <c r="K12" s="20" t="s">
         <v>19</v>
       </c>
     </row>
